--- a/450 Ques/1-450 Ques.xlsx
+++ b/450 Ques/1-450 Ques.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="467">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1428,13 +1428,16 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Best</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1496,13 +1499,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1518,7 +1539,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1542,6 +1563,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1549,6 +1575,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1857,10 +1888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1870,17 +1901,17 @@
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="B2" s="10" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21">
+    <row r="4" spans="1:4" ht="21">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1890,11 +1921,14 @@
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="11" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="21">
+    <row r="6" spans="1:4" ht="21">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1904,8 +1938,9 @@
       <c r="C6" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="21">
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" ht="21">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1915,8 +1950,9 @@
       <c r="C7" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="21">
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4" ht="21">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1926,8 +1962,9 @@
       <c r="C8" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="21">
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:4" ht="21">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1938,7 +1975,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21">
+    <row r="10" spans="1:4" ht="21">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1949,7 +1986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21">
+    <row r="11" spans="1:4" ht="21">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -1960,7 +1997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21">
+    <row r="12" spans="1:4" ht="21">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -1971,7 +2008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21">
+    <row r="13" spans="1:4" ht="21">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -1982,7 +2019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21">
+    <row r="14" spans="1:4" ht="21">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -1993,7 +2030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21">
+    <row r="15" spans="1:4" ht="21">
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
@@ -2004,7 +2041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21">
+    <row r="16" spans="1:4" ht="21">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -7378,5 +7415,6 @@
     <hyperlink ref="B2" r:id="rId446"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId447"/>
 </worksheet>
 </file>